--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1050911.419608817</v>
+        <v>1078376.763573818</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10356212.29808315</v>
+        <v>10356212.29808314</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.972584557</v>
+        <v>6486630.97258456</v>
       </c>
     </row>
     <row r="9">
@@ -1372,19 +1372,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>88.82403256962922</v>
       </c>
       <c r="G11" t="n">
-        <v>28.77919024860963</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1454,7 +1454,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>76.0019650891896</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1466,7 +1466,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H12" t="n">
-        <v>93.13436112172583</v>
+        <v>21.69126064627758</v>
       </c>
       <c r="I12" t="n">
         <v>21.30239922246436</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>126.927579058322</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>113.9076283554534</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U13" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1609,13 +1609,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>157.1793658052082</v>
+        <v>242.229087274614</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>206.9146911261644</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>23.37384712153003</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1205252336517</v>
+        <v>160.4549918838118</v>
       </c>
       <c r="T16" t="n">
         <v>220.8610019386828</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>291.0142820792864</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.6062992654567</v>
+        <v>8.744827941980024</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1928,7 +1928,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>76.0019650891896</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1943,7 +1943,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I18" t="n">
-        <v>21.30239922246437</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U18" t="n">
-        <v>154.3681652355345</v>
+        <v>225.8112657109832</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>7.834781753380772</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
         <v>286.2285878140705</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>51.9971677471762</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>182.9701177132947</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>182.9701177132955</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216741892</v>
       </c>
       <c r="T21" t="n">
-        <v>142.0522311736832</v>
+        <v>192.192932426668</v>
       </c>
       <c r="U21" t="n">
         <v>225.8112657109832</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>39.96522560164894</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>69.13647124208454</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2320,22 +2320,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>228.1141730009254</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>226.8786902591684</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2450,7 +2450,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T24" t="n">
-        <v>192.192932426668</v>
+        <v>192.1929324266687</v>
       </c>
       <c r="U24" t="n">
         <v>225.8112657109832</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>45.16552920067313</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H25" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.1858894786133</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>154.1794827857418</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>348.9517403448963</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2690,7 +2690,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8112657109836</v>
+        <v>225.8112657109832</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>67.63521007729739</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>90.41640700560929</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>128.1713872763966</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>311.8067952816532</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2930,7 +2930,7 @@
         <v>225.8112657109832</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494257</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3328844140846</v>
+        <v>81.20689933738501</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
-        <v>73.32637261807707</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>184.8609676657032</v>
       </c>
       <c r="D32" t="n">
-        <v>70.53631025209815</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>28.62828546264307</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>195.1205252336517</v>
+        <v>38.94101760531366</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>110.906398403074</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>250.3114920260792</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3359,10 +3359,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>135.3657483393379</v>
+        <v>63.9226478638888</v>
       </c>
       <c r="H36" t="n">
-        <v>21.69126064627671</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I36" t="n">
         <v>21.30239922246436</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>35.41362612421369</v>
       </c>
       <c r="G37" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H37" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T37" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.48805138125833</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>64.26473618607675</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,10 +3520,10 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H38" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>213.1982375843204</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H39" t="n">
-        <v>42.99365986874107</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3641,7 +3641,7 @@
         <v>225.8112657109832</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>161.3574866739762</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>67.25379917411156</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>10.53109160645565</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>374.8683228746073</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>124.7874829717001</v>
+        <v>86.9040920866739</v>
       </c>
       <c r="T41" t="n">
         <v>206.9146911261644</v>
@@ -3802,10 +3802,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H42" t="n">
-        <v>42.99365986874063</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216741892</v>
       </c>
       <c r="T42" t="n">
         <v>192.192932426668</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.3328844140846</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T43" t="n">
-        <v>215.0090941736181</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U43" t="n">
         <v>286.2285878140705</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>179.5712401841946</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>362.6690534808145</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>124.7874829717001</v>
+        <v>60.80217812927157</v>
       </c>
       <c r="T44" t="n">
         <v>206.9146911261644</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3657483393379</v>
+        <v>63.9226478638879</v>
       </c>
       <c r="H45" t="n">
         <v>93.13436112172583</v>
       </c>
       <c r="I45" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>63.50388216741938</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T45" t="n">
         <v>192.192932426668</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>84.81869281241406</v>
+        <v>5.682438156100554</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>447.8502350091234</v>
+        <v>525.3273265467737</v>
       </c>
       <c r="C11" t="n">
-        <v>78.88771806871171</v>
+        <v>525.3273265467737</v>
       </c>
       <c r="D11" t="n">
-        <v>78.88771806871171</v>
+        <v>525.3273265467737</v>
       </c>
       <c r="E11" t="n">
-        <v>78.88771806871171</v>
+        <v>139.5390739485295</v>
       </c>
       <c r="F11" t="n">
-        <v>78.88771806871171</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G11" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H11" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I11" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J11" t="n">
-        <v>181.1756535819841</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K11" t="n">
         <v>428.7854999799492</v>
@@ -5053,7 +5053,7 @@
         <v>1187.397991240659</v>
       </c>
       <c r="N11" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O11" t="n">
         <v>2002.031077317524</v>
@@ -5062,31 +5062,31 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q11" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R11" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S11" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="T11" t="n">
-        <v>2281.886707923822</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="U11" t="n">
-        <v>2281.886707923822</v>
+        <v>2028.300912117901</v>
       </c>
       <c r="V11" t="n">
-        <v>1950.823820580251</v>
+        <v>2028.300912117901</v>
       </c>
       <c r="W11" t="n">
-        <v>1598.055165310137</v>
+        <v>1675.532256847787</v>
       </c>
       <c r="X11" t="n">
-        <v>1224.589407049057</v>
+        <v>1302.066498586707</v>
       </c>
       <c r="Y11" t="n">
-        <v>834.4500750732452</v>
+        <v>911.9271666108955</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>859.1382992416497</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C12" t="n">
-        <v>684.6852699605228</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6781532488151</v>
+        <v>376.5134052938169</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207019</v>
       </c>
       <c r="G12" t="n">
-        <v>165.4105161450557</v>
+        <v>93.2457681900575</v>
       </c>
       <c r="H12" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J12" t="n">
-        <v>234.0659274310207</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K12" t="n">
-        <v>583.0451988570708</v>
+        <v>560.6342506504922</v>
       </c>
       <c r="L12" t="n">
-        <v>871.0094820397333</v>
+        <v>848.5985338331548</v>
       </c>
       <c r="M12" t="n">
-        <v>1226.407086288405</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N12" t="n">
-        <v>1605.619652518709</v>
+        <v>1583.208704312131</v>
       </c>
       <c r="O12" t="n">
-        <v>1930.305270232466</v>
+        <v>1907.894322025888</v>
       </c>
       <c r="P12" t="n">
-        <v>2171.561036994176</v>
+        <v>2149.150088787597</v>
       </c>
       <c r="Q12" t="n">
-        <v>2490.891446435099</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R12" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S12" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T12" t="n">
-        <v>2160.447087779</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U12" t="n">
-        <v>1932.354900192149</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V12" t="n">
-        <v>1697.202791960406</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W12" t="n">
         <v>1442.965435232205</v>
       </c>
       <c r="X12" t="n">
-        <v>1235.113935026672</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y12" t="n">
-        <v>1027.353636261718</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>501.8252368763442</v>
+        <v>196.7077764266124</v>
       </c>
       <c r="C13" t="n">
-        <v>332.8890539484373</v>
+        <v>196.7077764266124</v>
       </c>
       <c r="D13" t="n">
-        <v>217.8308434883834</v>
+        <v>196.7077764266124</v>
       </c>
       <c r="E13" t="n">
-        <v>217.8308434883834</v>
+        <v>196.7077764266124</v>
       </c>
       <c r="F13" t="n">
-        <v>217.8308434883834</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G13" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H13" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I13" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J13" t="n">
-        <v>73.4472800547763</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K13" t="n">
         <v>242.1145636490678</v>
       </c>
       <c r="L13" t="n">
-        <v>513.4770511394355</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M13" t="n">
-        <v>809.97986946425</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N13" t="n">
         <v>1104.867129907538</v>
@@ -5220,31 +5220,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q13" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R13" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S13" t="n">
-        <v>1308.3517434821</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T13" t="n">
-        <v>1308.3517434821</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U13" t="n">
-        <v>1019.231957811322</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="V13" t="n">
-        <v>1019.231957811322</v>
+        <v>842.3241731780771</v>
       </c>
       <c r="W13" t="n">
-        <v>729.8147877743615</v>
+        <v>552.9070031411165</v>
       </c>
       <c r="X13" t="n">
-        <v>501.8252368763442</v>
+        <v>324.9174522430992</v>
       </c>
       <c r="Y13" t="n">
-        <v>501.8252368763442</v>
+        <v>324.9174522430992</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1379.099573286211</v>
+        <v>778.9131223526942</v>
       </c>
       <c r="C14" t="n">
-        <v>1010.1370563458</v>
+        <v>778.9131223526942</v>
       </c>
       <c r="D14" t="n">
-        <v>851.3700201789227</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="E14" t="n">
-        <v>465.5817675806785</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="F14" t="n">
-        <v>465.5817675806785</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="G14" t="n">
-        <v>49.81782892870198</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H14" t="n">
-        <v>49.81782892870198</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I14" t="n">
         <v>49.81782892870198</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819841</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K14" t="n">
-        <v>428.7854999799492</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L14" t="n">
-        <v>772.8691714549157</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M14" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N14" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O14" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P14" t="n">
         <v>2299.347327962849</v>
@@ -5305,25 +5305,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.843483837422</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T14" t="n">
-        <v>2155.838745326145</v>
+        <v>2281.886707923822</v>
       </c>
       <c r="U14" t="n">
-        <v>2155.838745326145</v>
+        <v>2281.886707923822</v>
       </c>
       <c r="V14" t="n">
-        <v>2155.838745326145</v>
+        <v>2281.886707923822</v>
       </c>
       <c r="W14" t="n">
-        <v>2155.838745326145</v>
+        <v>1929.118052653708</v>
       </c>
       <c r="X14" t="n">
-        <v>2155.838745326145</v>
+        <v>1555.652294392628</v>
       </c>
       <c r="Y14" t="n">
-        <v>1765.699413350333</v>
+        <v>1165.512962416816</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>49.81782892870198</v>
       </c>
       <c r="J15" t="n">
-        <v>141.5150087964426</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K15" t="n">
-        <v>583.0451988570708</v>
+        <v>288.9454078621914</v>
       </c>
       <c r="L15" t="n">
-        <v>871.0094820397333</v>
+        <v>576.9096910448541</v>
       </c>
       <c r="M15" t="n">
-        <v>1226.407086288405</v>
+        <v>932.3072952935256</v>
       </c>
       <c r="N15" t="n">
-        <v>1605.619652518709</v>
+        <v>1311.519861523831</v>
       </c>
       <c r="O15" t="n">
-        <v>1930.305270232466</v>
+        <v>1823.003644137419</v>
       </c>
       <c r="P15" t="n">
-        <v>2171.561036994176</v>
+        <v>2379.537551852666</v>
       </c>
       <c r="Q15" t="n">
         <v>2490.891446435099</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>541.4555484552507</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="C16" t="n">
-        <v>372.5193655273438</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="D16" t="n">
-        <v>222.4027261150081</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="E16" t="n">
-        <v>222.4027261150081</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="F16" t="n">
-        <v>222.4027261150081</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G16" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H16" t="n">
         <v>49.81782892870198</v>
@@ -5436,16 +5436,16 @@
         <v>49.81782892870198</v>
       </c>
       <c r="J16" t="n">
-        <v>73.4472800547763</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K16" t="n">
         <v>242.1145636490678</v>
       </c>
       <c r="L16" t="n">
-        <v>513.4770511394355</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M16" t="n">
-        <v>809.97986946425</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N16" t="n">
         <v>1104.867129907538</v>
@@ -5457,31 +5457,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q16" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R16" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S16" t="n">
-        <v>1308.3517434821</v>
+        <v>1447.144618827339</v>
       </c>
       <c r="T16" t="n">
-        <v>1085.259822331916</v>
+        <v>1224.052697677154</v>
       </c>
       <c r="U16" t="n">
-        <v>796.1400366611375</v>
+        <v>934.932912006376</v>
       </c>
       <c r="V16" t="n">
-        <v>541.4555484552507</v>
+        <v>680.2484238004891</v>
       </c>
       <c r="W16" t="n">
-        <v>541.4555484552507</v>
+        <v>680.2484238004891</v>
       </c>
       <c r="X16" t="n">
-        <v>541.4555484552507</v>
+        <v>452.2588729024718</v>
       </c>
       <c r="Y16" t="n">
-        <v>541.4555484552507</v>
+        <v>231.4662937589417</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1528.787191259144</v>
+        <v>785.8792040132178</v>
       </c>
       <c r="C17" t="n">
-        <v>1528.787191259144</v>
+        <v>416.916687072806</v>
       </c>
       <c r="D17" t="n">
-        <v>1170.521492652394</v>
+        <v>58.65098846605554</v>
       </c>
       <c r="E17" t="n">
-        <v>876.5676723702861</v>
+        <v>58.65098846605554</v>
       </c>
       <c r="F17" t="n">
-        <v>465.5817675806785</v>
+        <v>58.65098846605554</v>
       </c>
       <c r="G17" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H17" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I17" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819841</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7854999799492</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L17" t="n">
-        <v>772.8691714549157</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M17" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N17" t="n">
         <v>1613.248129085907</v>
@@ -5548,19 +5548,19 @@
         <v>2155.838745326145</v>
       </c>
       <c r="U17" t="n">
-        <v>1902.252949520224</v>
+        <v>1902.252949520223</v>
       </c>
       <c r="V17" t="n">
-        <v>1902.252949520224</v>
+        <v>1902.252949520223</v>
       </c>
       <c r="W17" t="n">
-        <v>1902.252949520224</v>
+        <v>1549.484294250109</v>
       </c>
       <c r="X17" t="n">
-        <v>1528.787191259144</v>
+        <v>1176.018535989029</v>
       </c>
       <c r="Y17" t="n">
-        <v>1528.787191259144</v>
+        <v>785.8792040132178</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605228</v>
       </c>
       <c r="D18" t="n">
         <v>607.9156082542706</v>
       </c>
       <c r="E18" t="n">
-        <v>448.6781532488152</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F18" t="n">
         <v>302.1435952757001</v>
@@ -5588,19 +5588,19 @@
         <v>165.4105161450557</v>
       </c>
       <c r="H18" t="n">
-        <v>71.33540390088822</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J18" t="n">
         <v>234.0659274310207</v>
       </c>
       <c r="K18" t="n">
-        <v>413.775532849196</v>
+        <v>413.7755328491961</v>
       </c>
       <c r="L18" t="n">
-        <v>701.7398160318585</v>
+        <v>701.7398160318586</v>
       </c>
       <c r="M18" t="n">
         <v>1057.13742028053</v>
@@ -5609,10 +5609,10 @@
         <v>1436.349986510835</v>
       </c>
       <c r="O18" t="n">
-        <v>1761.035604224592</v>
+        <v>2052.845619503521</v>
       </c>
       <c r="P18" t="n">
-        <v>2149.150088787597</v>
+        <v>2294.10138626523</v>
       </c>
       <c r="Q18" t="n">
         <v>2468.48049822852</v>
@@ -5621,25 +5621,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S18" t="n">
-        <v>2354.581362957454</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T18" t="n">
-        <v>2160.447087779001</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U18" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V18" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W18" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y18" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>373.5578803175301</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="C19" t="n">
-        <v>204.6216973896232</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="D19" t="n">
-        <v>204.6216973896232</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="E19" t="n">
-        <v>204.6216973896232</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="F19" t="n">
-        <v>57.73174989171287</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G19" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H19" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I19" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J19" t="n">
-        <v>73.44728005477629</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K19" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L19" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M19" t="n">
-        <v>809.9798694642498</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N19" t="n">
         <v>1104.867129907538</v>
@@ -5691,7 +5691,7 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P19" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q19" t="n">
         <v>1609.220368204926</v>
@@ -5700,25 +5700,25 @@
         <v>1609.220368204926</v>
       </c>
       <c r="S19" t="n">
-        <v>1609.220368204926</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T19" t="n">
-        <v>1609.220368204926</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U19" t="n">
-        <v>1320.100582534148</v>
+        <v>899.9172217540123</v>
       </c>
       <c r="V19" t="n">
-        <v>1065.416094328261</v>
+        <v>645.2327335481255</v>
       </c>
       <c r="W19" t="n">
-        <v>775.9989242913</v>
+        <v>645.2327335481255</v>
       </c>
       <c r="X19" t="n">
-        <v>775.9989242913</v>
+        <v>417.2431826501081</v>
       </c>
       <c r="Y19" t="n">
-        <v>555.2063451477699</v>
+        <v>364.7207909862938</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1162.834297074108</v>
+        <v>1347.652597794608</v>
       </c>
       <c r="C20" t="n">
-        <v>793.8717801336968</v>
+        <v>978.6900808541964</v>
       </c>
       <c r="D20" t="n">
-        <v>435.6060815269462</v>
+        <v>620.4243822474459</v>
       </c>
       <c r="E20" t="n">
-        <v>49.81782892870198</v>
+        <v>234.6361296492017</v>
       </c>
       <c r="F20" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="G20" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="H20" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I20" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J20" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K20" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799486</v>
       </c>
       <c r="L20" t="n">
-        <v>772.8691714549145</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M20" t="n">
         <v>1187.397991240658</v>
@@ -5770,19 +5770,19 @@
         <v>2002.031077317523</v>
       </c>
       <c r="P20" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.347327962848</v>
       </c>
       <c r="Q20" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561745</v>
       </c>
       <c r="R20" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S20" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="T20" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="U20" t="n">
         <v>2111.2576880315</v>
@@ -5791,13 +5791,13 @@
         <v>2111.2576880315</v>
       </c>
       <c r="W20" t="n">
-        <v>1926.439387311</v>
+        <v>2111.2576880315</v>
       </c>
       <c r="X20" t="n">
-        <v>1552.97362904992</v>
+        <v>1737.79192977042</v>
       </c>
       <c r="Y20" t="n">
-        <v>1162.834297074108</v>
+        <v>1347.652597794608</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>909.7854722244628</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C21" t="n">
-        <v>735.3324429433358</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D21" t="n">
-        <v>586.3980332820845</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E21" t="n">
-        <v>427.1605782766289</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F21" t="n">
-        <v>280.6260203035139</v>
+        <v>302.1435952757</v>
       </c>
       <c r="G21" t="n">
-        <v>143.8929411728695</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H21" t="n">
-        <v>49.81782892870198</v>
+        <v>71.33540390088818</v>
       </c>
       <c r="I21" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J21" t="n">
         <v>234.0659274310207</v>
       </c>
       <c r="K21" t="n">
-        <v>560.6342506504913</v>
+        <v>413.775532849196</v>
       </c>
       <c r="L21" t="n">
-        <v>848.5985338331539</v>
+        <v>701.7398160318585</v>
       </c>
       <c r="M21" t="n">
-        <v>1203.996138081825</v>
+        <v>1057.13742028053</v>
       </c>
       <c r="N21" t="n">
-        <v>1583.20870431213</v>
+        <v>1673.633053273217</v>
       </c>
       <c r="O21" t="n">
-        <v>1907.894322025887</v>
+        <v>1998.318670986974</v>
       </c>
       <c r="P21" t="n">
-        <v>2149.150088787596</v>
+        <v>2239.574437748683</v>
       </c>
       <c r="Q21" t="n">
-        <v>2468.48049822852</v>
+        <v>2468.480498228519</v>
       </c>
       <c r="R21" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435098</v>
       </c>
       <c r="S21" t="n">
-        <v>2354.581362957453</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T21" t="n">
-        <v>2211.094260761814</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U21" t="n">
-        <v>1983.002073174962</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V21" t="n">
-        <v>1747.849964943219</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W21" t="n">
-        <v>1493.612608215017</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X21" t="n">
-        <v>1285.761108009485</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y21" t="n">
-        <v>1078.000809244531</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="22">
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>585.595418203304</v>
+        <v>514.8374303986295</v>
       </c>
       <c r="C22" t="n">
-        <v>416.6592352753971</v>
+        <v>514.8374303986295</v>
       </c>
       <c r="D22" t="n">
-        <v>266.5425958630614</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="E22" t="n">
-        <v>266.5425958630614</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="F22" t="n">
-        <v>119.652648365151</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G22" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="H22" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="I22" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870196</v>
       </c>
       <c r="J22" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477627</v>
       </c>
       <c r="K22" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490677</v>
       </c>
       <c r="L22" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394354</v>
       </c>
       <c r="M22" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642498</v>
       </c>
       <c r="N22" t="n">
         <v>1104.867129907538</v>
@@ -5928,34 +5928,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.066378230431</v>
+        <v>1557.06637823043</v>
       </c>
       <c r="Q22" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R22" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S22" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T22" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="U22" t="n">
-        <v>1505.443183112052</v>
+        <v>1320.100582534148</v>
       </c>
       <c r="V22" t="n">
-        <v>1505.443183112052</v>
+        <v>1065.416094328261</v>
       </c>
       <c r="W22" t="n">
-        <v>1216.026013075091</v>
+        <v>775.9989242913</v>
       </c>
       <c r="X22" t="n">
-        <v>988.0364621770739</v>
+        <v>775.9989242913</v>
       </c>
       <c r="Y22" t="n">
-        <v>767.2438830335437</v>
+        <v>555.2063451477699</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1575.292951821981</v>
+        <v>1083.261126703779</v>
       </c>
       <c r="C23" t="n">
-        <v>1206.33043488157</v>
+        <v>1083.261126703779</v>
       </c>
       <c r="D23" t="n">
-        <v>848.0647362748191</v>
+        <v>1083.261126703779</v>
       </c>
       <c r="E23" t="n">
-        <v>462.2764836765748</v>
+        <v>697.4728741055351</v>
       </c>
       <c r="F23" t="n">
-        <v>51.29057888696726</v>
+        <v>697.4728741055351</v>
       </c>
       <c r="G23" t="n">
-        <v>51.29057888696726</v>
+        <v>281.7089354535586</v>
       </c>
       <c r="H23" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I23" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J23" t="n">
-        <v>182.6484035402486</v>
+        <v>189.7538958209955</v>
       </c>
       <c r="K23" t="n">
-        <v>430.2582499382139</v>
+        <v>437.3637422189608</v>
       </c>
       <c r="L23" t="n">
-        <v>774.3419214131802</v>
+        <v>781.447413693927</v>
       </c>
       <c r="M23" t="n">
-        <v>1188.870741198924</v>
+        <v>1195.976233479671</v>
       </c>
       <c r="N23" t="n">
-        <v>1621.826371324918</v>
+        <v>1621.826371324919</v>
       </c>
       <c r="O23" t="n">
         <v>2010.609319556535</v>
@@ -6010,7 +6010,7 @@
         <v>2307.92557020186</v>
       </c>
       <c r="Q23" t="n">
-        <v>2483.024945800757</v>
+        <v>2483.024945800758</v>
       </c>
       <c r="R23" t="n">
         <v>2564.528944348363</v>
@@ -6025,16 +6025,16 @@
         <v>2564.528944348363</v>
       </c>
       <c r="V23" t="n">
-        <v>2564.528944348363</v>
+        <v>2233.466057004793</v>
       </c>
       <c r="W23" t="n">
-        <v>2564.528944348363</v>
+        <v>2233.466057004793</v>
       </c>
       <c r="X23" t="n">
-        <v>2191.063186087283</v>
+        <v>1860.000298743713</v>
       </c>
       <c r="Y23" t="n">
-        <v>1961.892791886103</v>
+        <v>1469.860966767901</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549141</v>
       </c>
       <c r="C24" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737871</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070804</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G24" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I24" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J24" t="n">
         <v>235.538677389286</v>
       </c>
       <c r="K24" t="n">
-        <v>415.2482828074615</v>
+        <v>415.2482828074614</v>
       </c>
       <c r="L24" t="n">
-        <v>703.2125659901241</v>
+        <v>703.2125659901239</v>
       </c>
       <c r="M24" t="n">
-        <v>1277.63363599509</v>
+        <v>1058.610170238795</v>
       </c>
       <c r="N24" t="n">
-        <v>1656.846202225395</v>
+        <v>1437.8227364691</v>
       </c>
       <c r="O24" t="n">
-        <v>1981.531819939152</v>
+        <v>1762.508354182857</v>
       </c>
       <c r="P24" t="n">
         <v>2222.787586700861</v>
@@ -6095,7 +6095,7 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S24" t="n">
-        <v>2428.218860870717</v>
+        <v>2428.218860870718</v>
       </c>
       <c r="T24" t="n">
         <v>2234.084585692265</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>663.0815851258542</v>
+        <v>433.8615230419022</v>
       </c>
       <c r="C25" t="n">
-        <v>663.0815851258542</v>
+        <v>264.9253401139953</v>
       </c>
       <c r="D25" t="n">
-        <v>663.0815851258542</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="E25" t="n">
-        <v>515.1684915434611</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="F25" t="n">
-        <v>368.2785440455507</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="G25" t="n">
-        <v>200.2655294858693</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H25" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I25" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J25" t="n">
-        <v>74.9200300130416</v>
+        <v>74.92003001304158</v>
       </c>
       <c r="K25" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L25" t="n">
-        <v>514.9498010977009</v>
+        <v>514.9498010977007</v>
       </c>
       <c r="M25" t="n">
-        <v>811.4526194225153</v>
+        <v>811.4526194225152</v>
       </c>
       <c r="N25" t="n">
-        <v>1106.339879865804</v>
+        <v>1106.339879865803</v>
       </c>
       <c r="O25" t="n">
-        <v>1362.699698256868</v>
+        <v>1362.699698256867</v>
       </c>
       <c r="P25" t="n">
         <v>1558.539128188696</v>
       </c>
       <c r="Q25" t="n">
-        <v>1610.693118163192</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="R25" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="S25" t="n">
-        <v>1309.824493440366</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="T25" t="n">
-        <v>1086.732572290181</v>
+        <v>1387.601197013007</v>
       </c>
       <c r="U25" t="n">
-        <v>797.612786619403</v>
+        <v>1387.601197013007</v>
       </c>
       <c r="V25" t="n">
-        <v>663.0815851258542</v>
+        <v>1132.91670880712</v>
       </c>
       <c r="W25" t="n">
-        <v>663.0815851258542</v>
+        <v>843.4995387701592</v>
       </c>
       <c r="X25" t="n">
-        <v>663.0815851258542</v>
+        <v>615.5099878721419</v>
       </c>
       <c r="Y25" t="n">
-        <v>663.0815851258542</v>
+        <v>615.5099878721419</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>852.8427701371879</v>
+        <v>1648.726494724433</v>
       </c>
       <c r="C26" t="n">
-        <v>852.8427701371879</v>
+        <v>1279.763977784021</v>
       </c>
       <c r="D26" t="n">
-        <v>852.8427701371879</v>
+        <v>921.4982791772704</v>
       </c>
       <c r="E26" t="n">
-        <v>467.0545175389437</v>
+        <v>535.7100265790262</v>
       </c>
       <c r="F26" t="n">
-        <v>467.0545175389437</v>
+        <v>535.7100265790262</v>
       </c>
       <c r="G26" t="n">
-        <v>51.29057888696727</v>
+        <v>119.9460879270498</v>
       </c>
       <c r="H26" t="n">
-        <v>51.29057888696727</v>
+        <v>119.9460879270498</v>
       </c>
       <c r="I26" t="n">
         <v>51.29057888696727</v>
@@ -6229,10 +6229,10 @@
         <v>182.6484035402486</v>
       </c>
       <c r="K26" t="n">
-        <v>430.2582499382139</v>
+        <v>502.4229978932134</v>
       </c>
       <c r="L26" t="n">
-        <v>846.5066693681795</v>
+        <v>846.5066693681797</v>
       </c>
       <c r="M26" t="n">
         <v>1261.035489153923</v>
@@ -6256,22 +6256,22 @@
         <v>2564.528944348363</v>
       </c>
       <c r="T26" t="n">
-        <v>2355.524205837086</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U26" t="n">
-        <v>2355.524205837086</v>
+        <v>2408.792093049634</v>
       </c>
       <c r="V26" t="n">
-        <v>2355.524205837086</v>
+        <v>2408.792093049634</v>
       </c>
       <c r="W26" t="n">
-        <v>2003.047700438201</v>
+        <v>2408.792093049634</v>
       </c>
       <c r="X26" t="n">
-        <v>1629.581942177121</v>
+        <v>2035.326334788554</v>
       </c>
       <c r="Y26" t="n">
-        <v>1239.44261020131</v>
+        <v>2035.326334788554</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>932.7757971549141</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C27" t="n">
-        <v>758.3227678737871</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D27" t="n">
         <v>609.3883582125359</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F27" t="n">
         <v>303.6163452339654</v>
@@ -6308,22 +6308,22 @@
         <v>235.538677389286</v>
       </c>
       <c r="K27" t="n">
-        <v>415.2482828074615</v>
+        <v>656.6826967703355</v>
       </c>
       <c r="L27" t="n">
-        <v>1049.969196533681</v>
+        <v>944.646979952998</v>
       </c>
       <c r="M27" t="n">
-        <v>1405.366800782353</v>
+        <v>1300.04458420167</v>
       </c>
       <c r="N27" t="n">
-        <v>1784.579367012658</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O27" t="n">
-        <v>2211.919283004222</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P27" t="n">
-        <v>2453.175049765931</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q27" t="n">
         <v>2564.528944348363</v>
@@ -6335,13 +6335,13 @@
         <v>2428.218860870718</v>
       </c>
       <c r="T27" t="n">
-        <v>2234.084585692265</v>
+        <v>2234.084585692266</v>
       </c>
       <c r="U27" t="n">
         <v>2005.992398105413</v>
       </c>
       <c r="V27" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W27" t="n">
         <v>1516.602933145469</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>436.4582494147394</v>
+        <v>665.1464423075133</v>
       </c>
       <c r="C28" t="n">
-        <v>267.5220664868325</v>
+        <v>496.2102593796064</v>
       </c>
       <c r="D28" t="n">
-        <v>267.5220664868325</v>
+        <v>346.0936199672707</v>
       </c>
       <c r="E28" t="n">
-        <v>119.6089729044394</v>
+        <v>198.1805263848776</v>
       </c>
       <c r="F28" t="n">
         <v>51.29057888696727</v>
@@ -6384,52 +6384,52 @@
         <v>51.29057888696727</v>
       </c>
       <c r="J28" t="n">
-        <v>74.9200300130416</v>
+        <v>74.92003001304158</v>
       </c>
       <c r="K28" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L28" t="n">
-        <v>514.9498010977009</v>
+        <v>514.9498010977007</v>
       </c>
       <c r="M28" t="n">
-        <v>811.4526194225153</v>
+        <v>811.4526194225152</v>
       </c>
       <c r="N28" t="n">
-        <v>1106.339879865804</v>
+        <v>1106.339879865803</v>
       </c>
       <c r="O28" t="n">
-        <v>1362.699698256868</v>
+        <v>1362.699698256867</v>
       </c>
       <c r="P28" t="n">
         <v>1558.539128188696</v>
       </c>
       <c r="Q28" t="n">
-        <v>1610.693118163192</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="R28" t="n">
-        <v>1610.693118163192</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="S28" t="n">
-        <v>1610.693118163192</v>
+        <v>1413.60167853324</v>
       </c>
       <c r="T28" t="n">
-        <v>1610.693118163192</v>
+        <v>1322.27197448717</v>
       </c>
       <c r="U28" t="n">
-        <v>1321.573332492414</v>
+        <v>1322.27197448717</v>
       </c>
       <c r="V28" t="n">
-        <v>1066.888844286527</v>
+        <v>1067.587486281283</v>
       </c>
       <c r="W28" t="n">
-        <v>1066.888844286527</v>
+        <v>1067.587486281283</v>
       </c>
       <c r="X28" t="n">
-        <v>838.8992933885092</v>
+        <v>1067.587486281283</v>
       </c>
       <c r="Y28" t="n">
-        <v>618.1067142449791</v>
+        <v>846.7949071377531</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>806.0413484256233</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="C29" t="n">
-        <v>437.0788314852115</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="D29" t="n">
-        <v>437.0788314852115</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="E29" t="n">
-        <v>51.29057888696727</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="F29" t="n">
-        <v>51.29057888696727</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="G29" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H29" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I29" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J29" t="n">
         <v>182.6484035402486</v>
       </c>
       <c r="K29" t="n">
-        <v>430.2582499382139</v>
+        <v>430.2582499382138</v>
       </c>
       <c r="L29" t="n">
-        <v>774.3419214131802</v>
+        <v>774.34192141318</v>
       </c>
       <c r="M29" t="n">
-        <v>1188.870741198924</v>
+        <v>1188.870741198923</v>
       </c>
       <c r="N29" t="n">
-        <v>1614.720879044172</v>
+        <v>1621.826371324918</v>
       </c>
       <c r="O29" t="n">
-        <v>2003.503827275789</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P29" t="n">
-        <v>2300.820077921114</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q29" t="n">
-        <v>2483.024945800758</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S29" t="n">
-        <v>2438.480981750687</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T29" t="n">
-        <v>2309.014933996751</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="U29" t="n">
-        <v>2309.014933996751</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="V29" t="n">
-        <v>2309.014933996751</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="W29" t="n">
-        <v>1956.246278726637</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="X29" t="n">
-        <v>1582.780520465557</v>
+        <v>2040.567846966729</v>
       </c>
       <c r="Y29" t="n">
-        <v>1192.641188489745</v>
+        <v>1650.428514990917</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>932.7757971549141</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C30" t="n">
-        <v>758.3227678737871</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070801</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G30" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915366</v>
       </c>
       <c r="I30" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J30" t="n">
-        <v>192.7415585031277</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K30" t="n">
-        <v>634.271748563756</v>
+        <v>634.2717485637559</v>
       </c>
       <c r="L30" t="n">
-        <v>922.2360317464186</v>
+        <v>922.2360317464183</v>
       </c>
       <c r="M30" t="n">
         <v>1277.63363599509</v>
@@ -6569,7 +6569,7 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S30" t="n">
-        <v>2428.218860870718</v>
+        <v>2428.218860870717</v>
       </c>
       <c r="T30" t="n">
         <v>2234.084585692265</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>833.1594568671948</v>
+        <v>430.324336845077</v>
       </c>
       <c r="C31" t="n">
-        <v>664.2232739392879</v>
+        <v>430.324336845077</v>
       </c>
       <c r="D31" t="n">
-        <v>514.1066345269521</v>
+        <v>280.2076974327413</v>
       </c>
       <c r="E31" t="n">
-        <v>366.193540944559</v>
+        <v>280.2076974327413</v>
       </c>
       <c r="F31" t="n">
-        <v>219.3035934466487</v>
+        <v>133.3177499348309</v>
       </c>
       <c r="G31" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H31" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I31" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J31" t="n">
-        <v>74.9200300130416</v>
+        <v>74.92003001304158</v>
       </c>
       <c r="K31" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L31" t="n">
-        <v>514.9498010977009</v>
+        <v>514.9498010977007</v>
       </c>
       <c r="M31" t="n">
-        <v>811.4526194225153</v>
+        <v>811.4526194225152</v>
       </c>
       <c r="N31" t="n">
-        <v>1106.339879865804</v>
+        <v>1106.339879865803</v>
       </c>
       <c r="O31" t="n">
-        <v>1362.699698256868</v>
+        <v>1362.699698256867</v>
       </c>
       <c r="P31" t="n">
         <v>1558.539128188696</v>
       </c>
       <c r="Q31" t="n">
-        <v>1610.693118163192</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="R31" t="n">
-        <v>1610.693118163192</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="S31" t="n">
-        <v>1610.693118163192</v>
+        <v>1413.60167853324</v>
       </c>
       <c r="T31" t="n">
-        <v>1536.626075114629</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="U31" t="n">
-        <v>1536.626075114629</v>
+        <v>901.3899717122773</v>
       </c>
       <c r="V31" t="n">
-        <v>1281.941586908742</v>
+        <v>901.3899717122773</v>
       </c>
       <c r="W31" t="n">
-        <v>1281.941586908742</v>
+        <v>611.9728016753168</v>
       </c>
       <c r="X31" t="n">
-        <v>1053.952036010725</v>
+        <v>611.9728016753168</v>
       </c>
       <c r="Y31" t="n">
-        <v>833.1594568671948</v>
+        <v>611.9728016753168</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1288.276051449673</v>
+        <v>1007.270432450702</v>
       </c>
       <c r="C32" t="n">
-        <v>919.3135345092617</v>
+        <v>820.5421822833252</v>
       </c>
       <c r="D32" t="n">
-        <v>848.0647362748191</v>
+        <v>462.2764836765748</v>
       </c>
       <c r="E32" t="n">
         <v>462.2764836765748</v>
       </c>
       <c r="F32" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G32" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H32" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I32" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J32" t="n">
         <v>182.6484035402486</v>
       </c>
       <c r="K32" t="n">
-        <v>430.2582499382139</v>
+        <v>430.2582499382138</v>
       </c>
       <c r="L32" t="n">
-        <v>774.3419214131802</v>
+        <v>774.34192141318</v>
       </c>
       <c r="M32" t="n">
-        <v>1188.870741198924</v>
+        <v>1188.870741198923</v>
       </c>
       <c r="N32" t="n">
         <v>1614.720879044172</v>
@@ -6718,34 +6718,34 @@
         <v>2003.503827275789</v>
       </c>
       <c r="P32" t="n">
-        <v>2300.820077921114</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q32" t="n">
-        <v>2483.024945800758</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R32" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S32" t="n">
-        <v>2438.480981750687</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T32" t="n">
-        <v>2438.480981750687</v>
+        <v>2355.524205837086</v>
       </c>
       <c r="U32" t="n">
-        <v>2438.480981750687</v>
+        <v>2101.938410031164</v>
       </c>
       <c r="V32" t="n">
-        <v>2438.480981750687</v>
+        <v>1770.875522687594</v>
       </c>
       <c r="W32" t="n">
-        <v>2438.480981750687</v>
+        <v>1770.875522687594</v>
       </c>
       <c r="X32" t="n">
-        <v>2065.015223489607</v>
+        <v>1397.409764426514</v>
       </c>
       <c r="Y32" t="n">
-        <v>1674.875891513795</v>
+        <v>1007.270432450702</v>
       </c>
     </row>
     <row r="33">
@@ -6770,34 +6770,34 @@
         <v>303.6163452339656</v>
       </c>
       <c r="G33" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H33" t="n">
-        <v>72.80815385915348</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I33" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J33" t="n">
         <v>235.538677389286</v>
       </c>
       <c r="K33" t="n">
-        <v>677.0688674499143</v>
+        <v>656.682696770335</v>
       </c>
       <c r="L33" t="n">
-        <v>965.0331506325768</v>
+        <v>944.6469799529975</v>
       </c>
       <c r="M33" t="n">
-        <v>1320.430754881249</v>
+        <v>1300.044584201669</v>
       </c>
       <c r="N33" t="n">
-        <v>1699.643321111553</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O33" t="n">
-        <v>2024.32893882531</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P33" t="n">
-        <v>2265.584705587019</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q33" t="n">
         <v>2564.528944348363</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>545.2276404201706</v>
+        <v>833.1594568671948</v>
       </c>
       <c r="C34" t="n">
-        <v>516.3101803568948</v>
+        <v>664.2232739392879</v>
       </c>
       <c r="D34" t="n">
-        <v>366.193540944559</v>
+        <v>514.1066345269521</v>
       </c>
       <c r="E34" t="n">
         <v>366.193540944559</v>
@@ -6849,61 +6849,61 @@
         <v>219.3035934466487</v>
       </c>
       <c r="G34" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H34" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I34" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J34" t="n">
-        <v>74.9200300130416</v>
+        <v>74.92003001304158</v>
       </c>
       <c r="K34" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L34" t="n">
-        <v>514.9498010977009</v>
+        <v>514.9498010977007</v>
       </c>
       <c r="M34" t="n">
-        <v>811.4526194225153</v>
+        <v>811.4526194225152</v>
       </c>
       <c r="N34" t="n">
-        <v>1106.339879865804</v>
+        <v>1106.339879865803</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.699698256868</v>
+        <v>1362.699698256867</v>
       </c>
       <c r="P34" t="n">
         <v>1558.539128188696</v>
       </c>
       <c r="Q34" t="n">
-        <v>1610.693118163192</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="R34" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="S34" t="n">
-        <v>1309.824493440366</v>
+        <v>1571.358756945703</v>
       </c>
       <c r="T34" t="n">
-        <v>1309.824493440366</v>
+        <v>1571.358756945703</v>
       </c>
       <c r="U34" t="n">
-        <v>1020.704707769588</v>
+        <v>1571.358756945703</v>
       </c>
       <c r="V34" t="n">
-        <v>766.0202195637007</v>
+        <v>1571.358756945703</v>
       </c>
       <c r="W34" t="n">
-        <v>766.0202195637007</v>
+        <v>1281.941586908742</v>
       </c>
       <c r="X34" t="n">
-        <v>766.0202195637007</v>
+        <v>1053.952036010725</v>
       </c>
       <c r="Y34" t="n">
-        <v>545.2276404201706</v>
+        <v>833.1594568671948</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>530.8070109227237</v>
+        <v>1098.54144445138</v>
       </c>
       <c r="C35" t="n">
-        <v>161.844493982312</v>
+        <v>729.5789275109685</v>
       </c>
       <c r="D35" t="n">
-        <v>49.81782892870198</v>
+        <v>371.313228904218</v>
       </c>
       <c r="E35" t="n">
-        <v>49.81782892870198</v>
+        <v>371.313228904218</v>
       </c>
       <c r="F35" t="n">
-        <v>49.81782892870198</v>
+        <v>371.313228904218</v>
       </c>
       <c r="G35" t="n">
-        <v>49.81782892870198</v>
+        <v>371.313228904218</v>
       </c>
       <c r="H35" t="n">
-        <v>49.81782892870198</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I35" t="n">
         <v>49.81782892870198</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L35" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549154</v>
       </c>
       <c r="M35" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N35" t="n">
         <v>1613.248129085907</v>
@@ -6967,22 +6967,22 @@
         <v>2364.843483837422</v>
       </c>
       <c r="T35" t="n">
-        <v>2364.843483837422</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="U35" t="n">
-        <v>2364.843483837422</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="V35" t="n">
-        <v>2033.780596493851</v>
+        <v>1824.775857982574</v>
       </c>
       <c r="W35" t="n">
-        <v>1681.011941223737</v>
+        <v>1472.00720271246</v>
       </c>
       <c r="X35" t="n">
-        <v>1307.546182962657</v>
+        <v>1098.54144445138</v>
       </c>
       <c r="Y35" t="n">
-        <v>917.4068509868455</v>
+        <v>1098.54144445138</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>229.978847320701</v>
       </c>
       <c r="G36" t="n">
-        <v>93.24576819005659</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H36" t="n">
         <v>71.3354039008882</v>
@@ -7016,13 +7016,13 @@
         <v>49.81782892870198</v>
       </c>
       <c r="J36" t="n">
-        <v>141.5150087964422</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K36" t="n">
-        <v>583.0451988570704</v>
+        <v>583.0451988570708</v>
       </c>
       <c r="L36" t="n">
-        <v>871.009482039733</v>
+        <v>871.0094820397333</v>
       </c>
       <c r="M36" t="n">
         <v>1226.407086288405</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>937.1985917043911</v>
+        <v>720.5680989304269</v>
       </c>
       <c r="C37" t="n">
-        <v>768.2624087764842</v>
+        <v>551.63191600252</v>
       </c>
       <c r="D37" t="n">
-        <v>768.2624087764842</v>
+        <v>401.5152765901843</v>
       </c>
       <c r="E37" t="n">
-        <v>620.3493151940911</v>
+        <v>253.6021830077912</v>
       </c>
       <c r="F37" t="n">
-        <v>473.4593676961807</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G37" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H37" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I37" t="n">
         <v>49.81782892870198</v>
       </c>
       <c r="J37" t="n">
-        <v>73.44728005477631</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K37" t="n">
         <v>242.1145636490678</v>
       </c>
       <c r="L37" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M37" t="n">
-        <v>809.9798694642501</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N37" t="n">
         <v>1104.867129907538</v>
@@ -7116,31 +7116,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q37" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R37" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S37" t="n">
         <v>1412.128928574975</v>
       </c>
       <c r="T37" t="n">
-        <v>1189.037007424791</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="U37" t="n">
-        <v>1189.037007424791</v>
+        <v>1123.009142904197</v>
       </c>
       <c r="V37" t="n">
-        <v>1189.037007424791</v>
+        <v>1123.009142904197</v>
       </c>
       <c r="W37" t="n">
-        <v>1189.037007424791</v>
+        <v>1123.009142904197</v>
       </c>
       <c r="X37" t="n">
-        <v>1189.037007424791</v>
+        <v>1123.009142904197</v>
       </c>
       <c r="Y37" t="n">
-        <v>1118.847056534631</v>
+        <v>902.2165637606666</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1567.021231929388</v>
+        <v>1379.099573286211</v>
       </c>
       <c r="C38" t="n">
-        <v>1567.021231929388</v>
+        <v>1010.1370563458</v>
       </c>
       <c r="D38" t="n">
-        <v>1567.021231929388</v>
+        <v>945.2231814103686</v>
       </c>
       <c r="E38" t="n">
-        <v>1181.232979331143</v>
+        <v>945.2231814103686</v>
       </c>
       <c r="F38" t="n">
-        <v>770.247074541536</v>
+        <v>534.237276620761</v>
       </c>
       <c r="G38" t="n">
-        <v>354.4831358895594</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="H38" t="n">
-        <v>49.81782892870198</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I38" t="n">
         <v>49.81782892870198</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L38" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M38" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N38" t="n">
         <v>1613.248129085907</v>
@@ -7213,13 +7213,13 @@
         <v>2155.838745326145</v>
       </c>
       <c r="W38" t="n">
-        <v>1940.486990190468</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="X38" t="n">
-        <v>1567.021231929388</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="Y38" t="n">
-        <v>1567.021231929388</v>
+        <v>1765.699413350333</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>859.1382992416497</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C39" t="n">
-        <v>684.6852699605228</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D39" t="n">
-        <v>535.7508602992715</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E39" t="n">
-        <v>376.513405293816</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F39" t="n">
-        <v>229.978847320701</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G39" t="n">
-        <v>93.24576819005659</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H39" t="n">
-        <v>49.81782892870198</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I39" t="n">
         <v>49.81782892870198</v>
       </c>
       <c r="J39" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K39" t="n">
-        <v>288.9454078621914</v>
+        <v>583.0451988570708</v>
       </c>
       <c r="L39" t="n">
-        <v>905.4410408548783</v>
+        <v>871.0094820397333</v>
       </c>
       <c r="M39" t="n">
-        <v>1260.83864510355</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N39" t="n">
-        <v>1640.051211333855</v>
+        <v>1605.619652518709</v>
       </c>
       <c r="O39" t="n">
-        <v>1964.736829047612</v>
+        <v>1930.305270232466</v>
       </c>
       <c r="P39" t="n">
-        <v>2379.537551852666</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q39" t="n">
         <v>2490.891446435099</v>
@@ -7289,16 +7289,16 @@
         <v>1932.354900192149</v>
       </c>
       <c r="V39" t="n">
-        <v>1697.202791960406</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W39" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X39" t="n">
-        <v>1235.113935026672</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y39" t="n">
-        <v>1027.353636261718</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="40">
@@ -7332,16 +7332,16 @@
         <v>49.81782892870198</v>
       </c>
       <c r="J40" t="n">
-        <v>73.44728005477631</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K40" t="n">
         <v>242.1145636490678</v>
       </c>
       <c r="L40" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M40" t="n">
-        <v>809.9798694642501</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N40" t="n">
         <v>1104.867129907538</v>
@@ -7353,31 +7353,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q40" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R40" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S40" t="n">
-        <v>1412.128928574975</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T40" t="n">
-        <v>1189.037007424791</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U40" t="n">
-        <v>1189.037007424791</v>
+        <v>1097.008661383963</v>
       </c>
       <c r="V40" t="n">
-        <v>1189.037007424791</v>
+        <v>842.3241731780766</v>
       </c>
       <c r="W40" t="n">
-        <v>899.6198373878301</v>
+        <v>831.6867069089295</v>
       </c>
       <c r="X40" t="n">
-        <v>899.6198373878301</v>
+        <v>831.6867069089295</v>
       </c>
       <c r="Y40" t="n">
-        <v>899.6198373878301</v>
+        <v>831.6867069089295</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1197.724303915572</v>
+        <v>1256.687458305554</v>
       </c>
       <c r="C41" t="n">
-        <v>1197.724303915572</v>
+        <v>887.7249413651425</v>
       </c>
       <c r="D41" t="n">
-        <v>839.4586053088219</v>
+        <v>529.4592427583921</v>
       </c>
       <c r="E41" t="n">
-        <v>839.4586053088219</v>
+        <v>529.4592427583921</v>
       </c>
       <c r="F41" t="n">
-        <v>428.4727005192144</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="G41" t="n">
-        <v>49.81782892870196</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H41" t="n">
-        <v>49.81782892870196</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I41" t="n">
         <v>49.81782892870196</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819832</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799484</v>
       </c>
       <c r="L41" t="n">
         <v>772.8691714549145</v>
@@ -7438,25 +7438,25 @@
         <v>2490.891446435098</v>
       </c>
       <c r="S41" t="n">
-        <v>2364.843483837421</v>
+        <v>2403.109535236437</v>
       </c>
       <c r="T41" t="n">
-        <v>2155.838745326144</v>
+        <v>2194.10479672516</v>
       </c>
       <c r="U41" t="n">
-        <v>1902.252949520223</v>
+        <v>1940.519000919239</v>
       </c>
       <c r="V41" t="n">
-        <v>1571.190062176652</v>
+        <v>1609.456113575668</v>
       </c>
       <c r="W41" t="n">
-        <v>1571.190062176652</v>
+        <v>1256.687458305554</v>
       </c>
       <c r="X41" t="n">
-        <v>1197.724303915572</v>
+        <v>1256.687458305554</v>
       </c>
       <c r="Y41" t="n">
-        <v>1197.724303915572</v>
+        <v>1256.687458305554</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>859.1382992416493</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C42" t="n">
-        <v>684.6852699605223</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D42" t="n">
-        <v>535.750860299271</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E42" t="n">
-        <v>376.5134052938155</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F42" t="n">
-        <v>229.9788473207005</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G42" t="n">
-        <v>93.24576819005614</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H42" t="n">
-        <v>49.81782892870196</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I42" t="n">
         <v>49.81782892870196</v>
@@ -7496,19 +7496,19 @@
         <v>560.6342506504908</v>
       </c>
       <c r="L42" t="n">
-        <v>848.5985338331534</v>
+        <v>848.5985338331533</v>
       </c>
       <c r="M42" t="n">
         <v>1203.996138081825</v>
       </c>
       <c r="N42" t="n">
-        <v>1583.20870431213</v>
+        <v>1583.208704312129</v>
       </c>
       <c r="O42" t="n">
-        <v>1907.894322025887</v>
+        <v>1907.894322025886</v>
       </c>
       <c r="P42" t="n">
-        <v>2149.150088787596</v>
+        <v>2149.150088787595</v>
       </c>
       <c r="Q42" t="n">
         <v>2468.480498228519</v>
@@ -7517,25 +7517,25 @@
         <v>2490.891446435098</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957453</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T42" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192148</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V42" t="n">
-        <v>1697.202791960406</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W42" t="n">
-        <v>1442.965435232204</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X42" t="n">
-        <v>1235.113935026671</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y42" t="n">
-        <v>1027.353636261717</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>512.6338845686869</v>
+        <v>536.883665828626</v>
       </c>
       <c r="C43" t="n">
-        <v>512.6338845686869</v>
+        <v>367.9474829007191</v>
       </c>
       <c r="D43" t="n">
-        <v>512.6338845686869</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="E43" t="n">
-        <v>364.7207909862938</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="F43" t="n">
         <v>217.8308434883834</v>
@@ -7569,16 +7569,16 @@
         <v>49.81782892870196</v>
       </c>
       <c r="J43" t="n">
-        <v>73.4472800547763</v>
+        <v>73.44728005477626</v>
       </c>
       <c r="K43" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490677</v>
       </c>
       <c r="L43" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394354</v>
       </c>
       <c r="M43" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642498</v>
       </c>
       <c r="N43" t="n">
         <v>1104.867129907538</v>
@@ -7587,34 +7587,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P43" t="n">
-        <v>1557.066378230431</v>
+        <v>1557.06637823043</v>
       </c>
       <c r="Q43" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R43" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S43" t="n">
-        <v>1308.351743482101</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T43" t="n">
-        <v>1091.170840276426</v>
+        <v>1189.03700742479</v>
       </c>
       <c r="U43" t="n">
-        <v>802.0510546056476</v>
+        <v>899.9172217540118</v>
       </c>
       <c r="V43" t="n">
-        <v>802.0510546056476</v>
+        <v>899.9172217540118</v>
       </c>
       <c r="W43" t="n">
-        <v>512.6338845686869</v>
+        <v>899.9172217540118</v>
       </c>
       <c r="X43" t="n">
-        <v>512.6338845686869</v>
+        <v>899.9172217540118</v>
       </c>
       <c r="Y43" t="n">
-        <v>512.6338845686869</v>
+        <v>718.5321306588658</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1571.190062176652</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="C44" t="n">
-        <v>1571.190062176652</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="D44" t="n">
-        <v>1212.924363569902</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E44" t="n">
-        <v>827.1361109716574</v>
+        <v>876.567672370286</v>
       </c>
       <c r="F44" t="n">
-        <v>416.1502061820499</v>
+        <v>465.5817675806784</v>
       </c>
       <c r="G44" t="n">
         <v>49.81782892870196</v>
@@ -7648,25 +7648,25 @@
         <v>49.81782892870196</v>
       </c>
       <c r="J44" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819832</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799484</v>
       </c>
       <c r="L44" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M44" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N44" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O44" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317522</v>
       </c>
       <c r="P44" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.347327962847</v>
       </c>
       <c r="Q44" t="n">
         <v>2474.446703561745</v>
@@ -7675,25 +7675,25 @@
         <v>2490.891446435098</v>
       </c>
       <c r="S44" t="n">
-        <v>2364.843483837421</v>
+        <v>2429.475104890379</v>
       </c>
       <c r="T44" t="n">
-        <v>2155.838745326144</v>
+        <v>2220.470366379102</v>
       </c>
       <c r="U44" t="n">
-        <v>1902.252949520223</v>
+        <v>1966.884570573181</v>
       </c>
       <c r="V44" t="n">
-        <v>1571.190062176652</v>
+        <v>1635.82168322961</v>
       </c>
       <c r="W44" t="n">
-        <v>1571.190062176652</v>
+        <v>1635.82168322961</v>
       </c>
       <c r="X44" t="n">
-        <v>1571.190062176652</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="Y44" t="n">
-        <v>1571.190062176652</v>
+        <v>1262.35592496853</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416488</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605219</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992706</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6781532488151</v>
+        <v>376.5134052938151</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207001</v>
       </c>
       <c r="G45" t="n">
         <v>165.4105161450557</v>
@@ -7733,7 +7733,7 @@
         <v>583.04519885707</v>
       </c>
       <c r="L45" t="n">
-        <v>871.0094820397326</v>
+        <v>871.0094820397325</v>
       </c>
       <c r="M45" t="n">
         <v>1226.407086288404</v>
@@ -7754,25 +7754,25 @@
         <v>2490.891446435098</v>
       </c>
       <c r="S45" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957452</v>
       </c>
       <c r="T45" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192148</v>
       </c>
       <c r="V45" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960405</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232204</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026671</v>
       </c>
       <c r="Y45" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261717</v>
       </c>
     </row>
     <row r="46">
@@ -7806,16 +7806,16 @@
         <v>49.81782892870196</v>
       </c>
       <c r="J46" t="n">
-        <v>73.4472800547763</v>
+        <v>73.44728005477626</v>
       </c>
       <c r="K46" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490677</v>
       </c>
       <c r="L46" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394354</v>
       </c>
       <c r="M46" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642498</v>
       </c>
       <c r="N46" t="n">
         <v>1104.867129907538</v>
@@ -7824,34 +7824,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P46" t="n">
-        <v>1557.066378230431</v>
+        <v>1557.06637823043</v>
       </c>
       <c r="Q46" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R46" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S46" t="n">
-        <v>1523.54492091966</v>
+        <v>1603.480531683612</v>
       </c>
       <c r="T46" t="n">
-        <v>1523.54492091966</v>
+        <v>1603.480531683612</v>
       </c>
       <c r="U46" t="n">
-        <v>1523.54492091966</v>
+        <v>1314.360746012834</v>
       </c>
       <c r="V46" t="n">
-        <v>1523.54492091966</v>
+        <v>1059.676257806947</v>
       </c>
       <c r="W46" t="n">
-        <v>1234.127750882699</v>
+        <v>1059.676257806947</v>
       </c>
       <c r="X46" t="n">
-        <v>1234.127750882699</v>
+        <v>831.6867069089295</v>
       </c>
       <c r="Y46" t="n">
-        <v>1013.335171739169</v>
+        <v>831.6867069089295</v>
       </c>
     </row>
   </sheetData>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>170.9794606140149</v>
+        <v>148.3421391932283</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>22.88434839053382</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>32.60525894184509</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>188.6850150503351</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.88434839053382</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>294.7575911908384</v>
       </c>
       <c r="P18" t="n">
-        <v>148.3421391932284</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>63.66183573823909</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>148.3421391932274</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>239.6798654165475</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>118.7395615125288</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>7.177264930047443</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>7.177264930046476</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>221.2358239962567</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>221.2358239962575</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>72.89368480302988</v>
       </c>
       <c r="L26" t="n">
-        <v>72.89368480302954</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>243.8731454170446</v>
       </c>
       <c r="L27" t="n">
-        <v>350.2592227712701</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>103.6912103816231</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>7.177264930046931</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>7.177264930046675</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>82.86162232408734</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>221.2358239962571</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10366,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>7.177264930046817</v>
       </c>
       <c r="Q32" t="n">
-        <v>7.177264930046675</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>243.8731454170441</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>189.4851961403145</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>32.60525894184465</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>170.9794606140149</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>170.9794606140149</v>
       </c>
       <c r="L39" t="n">
-        <v>331.8498482929539</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>175.2979353973187</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>148.3421391932269</v>
+        <v>148.3421391932271</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>170.979460614014</v>
+        <v>170.9794606140142</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053383</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>318.0520131720822</v>
       </c>
       <c r="G11" t="n">
-        <v>382.8271090168471</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
-        <v>67.96895394968166</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>71.44310047544916</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>71.44310047544825</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>52.90440112361533</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>34.70784466275896</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H13" t="n">
         <v>147.485201092913</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T13" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>197.5036758154747</v>
+        <v>112.453954346069</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23515,7 +23515,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>142.9590372925546</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I16" t="n">
         <v>105.5870378728063</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>34.6655333498399</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,19 +23734,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>90.91608799297541</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>402.8614713234767</v>
       </c>
       <c r="H17" t="n">
         <v>301.6186538912489</v>
@@ -23794,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23816,7 +23816,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>71.44310047544916</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>71.44310047544866</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>158.4981026607038</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>147.485201092913</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.7394132419461</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>166.5874856049186</v>
       </c>
     </row>
     <row r="20">
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>223.9059280284167</v>
       </c>
       <c r="G20" t="n">
         <v>411.6062992654567</v>
@@ -23989,7 +23989,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I20" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>166.2708510041176</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,10 +24098,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>71.44310047544998</v>
       </c>
       <c r="T21" t="n">
-        <v>50.1407012529848</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>139.8667545802884</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>97.19641317200005</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>147.485201092913</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S22" t="n">
         <v>195.1205252336517</v>
@@ -24183,16 +24183,16 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>301.6186538912489</v>
+        <v>73.50448089032349</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>159.3592483968852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>103.4499438175392</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I25" t="n">
         <v>105.5870378728063</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V25" t="n">
-        <v>118.9517538452147</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I26" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0499378478622</v>
+        <v>96.87045506212041</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0.2892283725167317</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>77.78583794563386</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.3328844140846</v>
@@ -24651,13 +24651,13 @@
         <v>102.739413241946</v>
       </c>
       <c r="S28" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.8610019386828</v>
+        <v>130.4445949330735</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
-        <v>78.74330384976781</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.0499378478622</v>
@@ -24742,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>57.92430539681584</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>85.12598507669958</v>
       </c>
       <c r="H31" t="n">
         <v>147.485201092913</v>
@@ -24888,25 +24888,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S31" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>147.5346293206057</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>180.4119241053044</v>
       </c>
       <c r="D32" t="n">
-        <v>284.1467313685848</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I32" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T32" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25077,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>138.6185356359848</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>156.1795076283381</v>
       </c>
       <c r="T34" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>243.776643217609</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25171,10 +25171,10 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
-        <v>301.6186538912489</v>
+        <v>51.30716186516972</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.0499378478622</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>71.44310047544913</v>
       </c>
       <c r="H36" t="n">
-        <v>71.44310047544911</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>110.0074218987176</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>149.0966019708364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>290.4183054346062</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>136.0427311330926</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>50.14070125298476</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25529,7 +25529,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>71.44310047544909</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>112.5781810078257</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>102.739413241946</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>275.9919067301353</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>36.73797639084944</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H41" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>37.88339088502624</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>50.1407012529852</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>71.44310047544998</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>5.851907765064681</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>39.01341316790015</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>48.93724578464224</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I44" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>63.98530484242858</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25958,7 +25958,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>71.44310047545002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>71.44310047544953</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.739413241946</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S46" t="n">
-        <v>110.3018324212377</v>
+        <v>189.4380870775512</v>
       </c>
       <c r="T46" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>708082.9009717233</v>
+        <v>708082.9009717234</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>708082.9009717233</v>
+        <v>708082.9009717234</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>708082.9009717233</v>
+        <v>708082.9009717231</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>720996.6025708689</v>
+        <v>720996.602570869</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>720996.6025708689</v>
+        <v>720996.6025708688</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>708082.9009717231</v>
+        <v>708082.9009717233</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>708082.9009717233</v>
+        <v>708082.9009717231</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>491565.8032302228</v>
+      </c>
+      <c r="C2" t="n">
         <v>491565.803230223</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>491565.8032302231</v>
       </c>
-      <c r="D2" t="n">
-        <v>491565.8032302228</v>
-      </c>
       <c r="E2" t="n">
-        <v>361414.0454873643</v>
+        <v>361414.0454873645</v>
       </c>
       <c r="F2" t="n">
         <v>361414.0454873645</v>
@@ -26337,25 +26337,25 @@
         <v>366643.6804421672</v>
       </c>
       <c r="J2" t="n">
-        <v>366643.6804421674</v>
+        <v>366643.6804421672</v>
       </c>
       <c r="K2" t="n">
-        <v>366643.6804421674</v>
+        <v>366643.6804421672</v>
       </c>
       <c r="L2" t="n">
-        <v>366643.6804421673</v>
+        <v>366643.6804421672</v>
       </c>
       <c r="M2" t="n">
+        <v>361414.0454873644</v>
+      </c>
+      <c r="N2" t="n">
+        <v>361414.0454873645</v>
+      </c>
+      <c r="O2" t="n">
         <v>361414.0454873643</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>361414.0454873643</v>
-      </c>
-      <c r="O2" t="n">
-        <v>361414.0454873644</v>
-      </c>
-      <c r="P2" t="n">
-        <v>361414.0454873644</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>924651.5793761238</v>
+        <v>924651.579376124</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648309</v>
+        <v>4895.439270648378</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150597.3382468588</v>
+        <v>150597.3382468589</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,28 +26438,28 @@
         <v>15880.58142742345</v>
       </c>
       <c r="I4" t="n">
-        <v>18784.1555741825</v>
+        <v>18784.15557418254</v>
       </c>
       <c r="J4" t="n">
-        <v>18784.15557418253</v>
+        <v>18784.15557418254</v>
       </c>
       <c r="K4" t="n">
-        <v>18784.15557418251</v>
+        <v>18784.15557418252</v>
       </c>
       <c r="L4" t="n">
-        <v>18784.15557418251</v>
+        <v>18784.15557418252</v>
       </c>
       <c r="M4" t="n">
-        <v>15880.58142742345</v>
+        <v>15880.58142742346</v>
       </c>
       <c r="N4" t="n">
-        <v>15880.58142742345</v>
+        <v>15880.58142742346</v>
       </c>
       <c r="O4" t="n">
         <v>15880.58142742344</v>
       </c>
       <c r="P4" t="n">
-        <v>15880.58142742344</v>
+        <v>15880.58142742345</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="F5" t="n">
         <v>57906.41050425672</v>
@@ -26487,7 +26487,7 @@
         <v>57906.41050425672</v>
       </c>
       <c r="H5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425671</v>
       </c>
       <c r="I5" t="n">
         <v>59025.70047253834</v>
@@ -26508,10 +26508,10 @@
         <v>57906.41050425672</v>
       </c>
       <c r="O5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425671</v>
       </c>
       <c r="P5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425671</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43121.66883858298</v>
+        <v>43161.39103939582</v>
       </c>
       <c r="C6" t="n">
-        <v>43121.66883858298</v>
+        <v>43161.39103939594</v>
       </c>
       <c r="D6" t="n">
-        <v>43121.66883858281</v>
+        <v>43161.39103939611</v>
       </c>
       <c r="E6" t="n">
-        <v>-642491.6515050733</v>
+        <v>-637571.2383889032</v>
       </c>
       <c r="F6" t="n">
-        <v>282159.9278710507</v>
+        <v>287080.340987221</v>
       </c>
       <c r="G6" t="n">
-        <v>282159.9278710506</v>
+        <v>287080.3409872208</v>
       </c>
       <c r="H6" t="n">
-        <v>282159.9278710505</v>
+        <v>287080.3409872207</v>
       </c>
       <c r="I6" t="n">
-        <v>278689.1608966146</v>
+        <v>283413.4627019796</v>
       </c>
       <c r="J6" t="n">
-        <v>283584.6001672631</v>
+        <v>288308.901972628</v>
       </c>
       <c r="K6" t="n">
-        <v>283584.6001672631</v>
+        <v>288308.901972628</v>
       </c>
       <c r="L6" t="n">
-        <v>283584.600167263</v>
+        <v>288308.901972628</v>
       </c>
       <c r="M6" t="n">
-        <v>131562.5896241918</v>
+        <v>136483.002740362</v>
       </c>
       <c r="N6" t="n">
-        <v>282159.9278710506</v>
+        <v>287080.3409872209</v>
       </c>
       <c r="O6" t="n">
-        <v>282159.9278710507</v>
+        <v>287080.3409872208</v>
       </c>
       <c r="P6" t="n">
-        <v>282159.9278710507</v>
+        <v>287080.3409872208</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>919.4890146074873</v>
+      </c>
+      <c r="F3" t="n">
+        <v>919.4890146074873</v>
+      </c>
+      <c r="G3" t="n">
         <v>919.4890146074872</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>919.4890146074872</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
+        <v>919.4890146074872</v>
+      </c>
+      <c r="J3" t="n">
+        <v>919.4890146074872</v>
+      </c>
+      <c r="K3" t="n">
+        <v>919.4890146074872</v>
+      </c>
+      <c r="L3" t="n">
+        <v>919.4890146074872</v>
+      </c>
+      <c r="M3" t="n">
+        <v>919.4890146074872</v>
+      </c>
+      <c r="N3" t="n">
+        <v>919.4890146074872</v>
+      </c>
+      <c r="O3" t="n">
         <v>919.4890146074871</v>
       </c>
-      <c r="H3" t="n">
-        <v>919.4890146074873</v>
-      </c>
-      <c r="I3" t="n">
-        <v>919.4890146074873</v>
-      </c>
-      <c r="J3" t="n">
-        <v>919.4890146074873</v>
-      </c>
-      <c r="K3" t="n">
-        <v>919.4890146074873</v>
-      </c>
-      <c r="L3" t="n">
-        <v>919.4890146074873</v>
-      </c>
-      <c r="M3" t="n">
-        <v>919.4890146074873</v>
-      </c>
-      <c r="N3" t="n">
-        <v>919.4890146074873</v>
-      </c>
-      <c r="O3" t="n">
-        <v>919.4890146074873</v>
-      </c>
       <c r="P3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074871</v>
       </c>
     </row>
     <row r="4">
@@ -26798,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="F4" t="n">
         <v>622.7228616087747</v>
       </c>
       <c r="G4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="H4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087745</v>
       </c>
       <c r="I4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="J4" t="n">
         <v>641.1322360870909</v>
       </c>
       <c r="K4" t="n">
-        <v>641.1322360870909</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="L4" t="n">
-        <v>641.1322360870909</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="M4" t="n">
         <v>622.7228616087747</v>
@@ -26828,10 +26828,10 @@
         <v>622.7228616087747</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7228616087746</v>
+        <v>622.7228616087745</v>
       </c>
       <c r="P4" t="n">
-        <v>622.7228616087746</v>
+        <v>622.7228616087745</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074872</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831615</v>
+        <v>18.40937447831641</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304585</v>
+        <v>604.313487130459</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I11" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J11" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K11" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L11" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M11" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N11" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O11" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P11" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q11" t="n">
         <v>399.1737460349519</v>
@@ -31794,7 +31794,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H12" t="n">
         <v>19.10108311477063</v>
@@ -31840,19 +31840,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J12" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K12" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L12" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M12" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N12" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O12" t="n">
         <v>470.5615148623808</v>
@@ -31861,16 +31861,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q12" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R12" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S12" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T12" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U12" t="n">
         <v>0.1301163699916256</v>
@@ -31931,7 +31931,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N13" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O13" t="n">
         <v>234.3641835920855</v>
@@ -31943,16 +31943,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R13" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S13" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T13" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I14" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J14" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K14" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L14" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M14" t="n">
-        <v>649.0622128088319</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N14" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O14" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P14" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q14" t="n">
         <v>399.1737460349519</v>
@@ -32031,7 +32031,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H15" t="n">
         <v>19.10108311477063</v>
@@ -32077,19 +32077,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J15" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K15" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L15" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M15" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N15" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O15" t="n">
         <v>470.5615148623808</v>
@@ -32098,16 +32098,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q15" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R15" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S15" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T15" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U15" t="n">
         <v>0.1301163699916256</v>
@@ -32168,7 +32168,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N16" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O16" t="n">
         <v>234.3641835920855</v>
@@ -32180,16 +32180,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R16" t="n">
-        <v>74.55397813522345</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S16" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T16" t="n">
-        <v>7.084587489598669</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H17" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I17" t="n">
         <v>142.5069356207242</v>
@@ -32244,10 +32244,10 @@
         <v>583.3256790861147</v>
       </c>
       <c r="M17" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N17" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O17" t="n">
         <v>622.8082601404915</v>
@@ -32256,13 +32256,13 @@
         <v>531.5524408515574</v>
       </c>
       <c r="Q17" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R17" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S17" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T17" t="n">
         <v>16.18115843796693</v>
@@ -32311,13 +32311,13 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I18" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J18" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K18" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L18" t="n">
         <v>429.4273930956949</v>
@@ -32329,10 +32329,10 @@
         <v>514.3847082755602</v>
       </c>
       <c r="O18" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P18" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q18" t="n">
         <v>252.460455482418</v>
@@ -32341,7 +32341,7 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S18" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T18" t="n">
         <v>7.971796268153589</v>
@@ -32414,16 +32414,16 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R19" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S19" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T19" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U19" t="n">
         <v>0.09044154242040867</v>
@@ -32469,28 +32469,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I20" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J20" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K20" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L20" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M20" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N20" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O20" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P20" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q20" t="n">
         <v>399.1737460349519</v>
@@ -32505,7 +32505,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U20" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H21" t="n">
         <v>19.10108311477063</v>
@@ -32551,19 +32551,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J21" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K21" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L21" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M21" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N21" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O21" t="n">
         <v>470.5615148623808</v>
@@ -32572,16 +32572,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q21" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R21" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S21" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T21" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U21" t="n">
         <v>0.1301163699916256</v>
@@ -32642,7 +32642,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N22" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O22" t="n">
         <v>234.3641835920855</v>
@@ -32654,16 +32654,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R22" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S22" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T22" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,28 +32706,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I23" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J23" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K23" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L23" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M23" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N23" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O23" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P23" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q23" t="n">
         <v>399.1737460349519</v>
@@ -32742,7 +32742,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U23" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H24" t="n">
         <v>19.10108311477063</v>
@@ -32788,19 +32788,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J24" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K24" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L24" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M24" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N24" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O24" t="n">
         <v>470.5615148623808</v>
@@ -32809,16 +32809,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q24" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R24" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S24" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T24" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U24" t="n">
         <v>0.1301163699916256</v>
@@ -32879,7 +32879,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N25" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O25" t="n">
         <v>234.3641835920855</v>
@@ -32891,16 +32891,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R25" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S25" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T25" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,28 +32943,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I26" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J26" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K26" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L26" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M26" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N26" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O26" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P26" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q26" t="n">
         <v>399.1737460349519</v>
@@ -32979,7 +32979,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U26" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H27" t="n">
         <v>19.10108311477063</v>
@@ -33025,19 +33025,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J27" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K27" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L27" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M27" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N27" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O27" t="n">
         <v>470.5615148623808</v>
@@ -33046,16 +33046,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q27" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R27" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S27" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T27" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U27" t="n">
         <v>0.1301163699916256</v>
@@ -33116,7 +33116,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N28" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O28" t="n">
         <v>234.3641835920855</v>
@@ -33128,16 +33128,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R28" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S28" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T28" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,28 +33180,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I29" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J29" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K29" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L29" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M29" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N29" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O29" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P29" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q29" t="n">
         <v>399.1737460349519</v>
@@ -33216,7 +33216,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U29" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H30" t="n">
         <v>19.10108311477063</v>
@@ -33262,19 +33262,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J30" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K30" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L30" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M30" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N30" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O30" t="n">
         <v>470.5615148623808</v>
@@ -33283,16 +33283,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q30" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R30" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S30" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T30" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U30" t="n">
         <v>0.1301163699916256</v>
@@ -33353,7 +33353,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N31" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O31" t="n">
         <v>234.3641835920855</v>
@@ -33365,16 +33365,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R31" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S31" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T31" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,28 +33417,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I32" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J32" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K32" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L32" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M32" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N32" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O32" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P32" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q32" t="n">
         <v>399.1737460349519</v>
@@ -33453,7 +33453,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U32" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H33" t="n">
         <v>19.10108311477063</v>
@@ -33499,19 +33499,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J33" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K33" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L33" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M33" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N33" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O33" t="n">
         <v>470.5615148623808</v>
@@ -33520,16 +33520,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q33" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R33" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S33" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T33" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U33" t="n">
         <v>0.1301163699916256</v>
@@ -33590,7 +33590,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N34" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O34" t="n">
         <v>234.3641835920855</v>
@@ -33602,16 +33602,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R34" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S34" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T34" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,28 +33654,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I35" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J35" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K35" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L35" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M35" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N35" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O35" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P35" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q35" t="n">
         <v>399.1737460349519</v>
@@ -33690,7 +33690,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U35" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H36" t="n">
         <v>19.10108311477063</v>
@@ -33736,19 +33736,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J36" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K36" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L36" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M36" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N36" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O36" t="n">
         <v>470.5615148623808</v>
@@ -33757,16 +33757,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q36" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R36" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S36" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T36" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U36" t="n">
         <v>0.1301163699916256</v>
@@ -33827,7 +33827,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N37" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O37" t="n">
         <v>234.3641835920855</v>
@@ -33839,16 +33839,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R37" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S37" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T37" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,28 +33891,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I38" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J38" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K38" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L38" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M38" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N38" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O38" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P38" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q38" t="n">
         <v>399.1737460349519</v>
@@ -33927,7 +33927,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U38" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H39" t="n">
         <v>19.10108311477063</v>
@@ -33973,19 +33973,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J39" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K39" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L39" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M39" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N39" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O39" t="n">
         <v>470.5615148623808</v>
@@ -33994,16 +33994,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q39" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R39" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S39" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T39" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U39" t="n">
         <v>0.1301163699916256</v>
@@ -34064,7 +34064,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N40" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O40" t="n">
         <v>234.3641835920855</v>
@@ -34076,16 +34076,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R40" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S40" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T40" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678337</v>
       </c>
       <c r="H41" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451828</v>
       </c>
       <c r="I41" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J41" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K41" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L41" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M41" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088318</v>
       </c>
       <c r="N41" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857305</v>
       </c>
       <c r="O41" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P41" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q41" t="n">
-        <v>399.1737460349519</v>
+        <v>399.1737460349518</v>
       </c>
       <c r="R41" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S41" t="n">
-        <v>84.23258661454521</v>
+        <v>84.2325866145452</v>
       </c>
       <c r="T41" t="n">
         <v>16.18115843796693</v>
       </c>
       <c r="U41" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H42" t="n">
         <v>19.10108311477063</v>
       </c>
       <c r="I42" t="n">
-        <v>68.09423362895072</v>
+        <v>68.0942336289507</v>
       </c>
       <c r="J42" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K42" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321118</v>
       </c>
       <c r="L42" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M42" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N42" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O42" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623807</v>
       </c>
       <c r="P42" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130262</v>
       </c>
       <c r="Q42" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R42" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S42" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096892</v>
       </c>
       <c r="T42" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U42" t="n">
         <v>0.1301163699916256</v>
@@ -34301,7 +34301,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N43" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O43" t="n">
         <v>234.3641835920855</v>
@@ -34310,19 +34310,19 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.8428412057306</v>
+        <v>138.8428412057305</v>
       </c>
       <c r="R43" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522343</v>
       </c>
       <c r="S43" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332052</v>
       </c>
       <c r="T43" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598668</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678337</v>
       </c>
       <c r="H44" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451828</v>
       </c>
       <c r="I44" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J44" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K44" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L44" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M44" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088318</v>
       </c>
       <c r="N44" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857298</v>
       </c>
       <c r="O44" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P44" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q44" t="n">
-        <v>399.1737460349511</v>
+        <v>399.1737460349518</v>
       </c>
       <c r="R44" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S44" t="n">
-        <v>84.23258661454521</v>
+        <v>84.2325866145452</v>
       </c>
       <c r="T44" t="n">
         <v>16.18115843796693</v>
       </c>
       <c r="U44" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H45" t="n">
         <v>19.10108311477063</v>
       </c>
       <c r="I45" t="n">
-        <v>68.09423362895072</v>
+        <v>68.0942336289507</v>
       </c>
       <c r="J45" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K45" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321118</v>
       </c>
       <c r="L45" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M45" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N45" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O45" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623807</v>
       </c>
       <c r="P45" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130262</v>
       </c>
       <c r="Q45" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R45" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S45" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096892</v>
       </c>
       <c r="T45" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U45" t="n">
         <v>0.1301163699916256</v>
@@ -34538,7 +34538,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N46" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O46" t="n">
         <v>234.3641835920855</v>
@@ -34547,19 +34547,19 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.8428412057306</v>
+        <v>138.8428412057305</v>
       </c>
       <c r="R46" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522343</v>
       </c>
       <c r="S46" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332052</v>
       </c>
       <c r="T46" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598668</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K11" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L11" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M11" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N11" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O11" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P11" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q11" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R11" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5043145717678</v>
+        <v>329.8669931509812</v>
       </c>
       <c r="L12" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M12" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N12" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O12" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P12" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q12" t="n">
-        <v>322.5559691322456</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K13" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L13" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M13" t="n">
         <v>299.4977962876914</v>
@@ -35582,13 +35582,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O13" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P13" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K14" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L14" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M14" t="n">
-        <v>418.7159795815592</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N14" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O14" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P14" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q14" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R14" t="n">
-        <v>16.61085138722495</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>92.62341400781882</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K15" t="n">
-        <v>445.9900909703315</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L15" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M15" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N15" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O15" t="n">
-        <v>327.9652704179363</v>
+        <v>516.6502854682715</v>
       </c>
       <c r="P15" t="n">
-        <v>243.692693698696</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q15" t="n">
-        <v>322.5559691322456</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.86813245058012</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K16" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L16" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M16" t="n">
         <v>299.4977962876914</v>
@@ -35819,13 +35819,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O16" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P16" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.68079795403618</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,16 +35886,16 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K17" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L17" t="n">
         <v>347.5592641161275</v>
       </c>
       <c r="M17" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N17" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O17" t="n">
         <v>392.7100487188047</v>
@@ -35904,10 +35904,10 @@
         <v>300.3194450962879</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R17" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>186.1091904063825</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K18" t="n">
-        <v>181.5248539577528</v>
+        <v>181.5248539577529</v>
       </c>
       <c r="L18" t="n">
         <v>290.8730133158207</v>
@@ -35977,16 +35977,16 @@
         <v>383.042996192227</v>
       </c>
       <c r="O18" t="n">
-        <v>327.9652704179363</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="P18" t="n">
-        <v>392.0348328919244</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q18" t="n">
-        <v>322.5559691322455</v>
+        <v>176.1405171346356</v>
       </c>
       <c r="R18" t="n">
-        <v>22.63732142078699</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K19" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L19" t="n">
         <v>274.1035227175431</v>
@@ -36062,7 +36062,7 @@
         <v>197.817605991746</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K20" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L20" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M20" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N20" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O20" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P20" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q20" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R20" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K21" t="n">
-        <v>329.8669931509803</v>
+        <v>181.5248539577529</v>
       </c>
       <c r="L21" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M21" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N21" t="n">
-        <v>383.0429961922271</v>
+        <v>622.7228616087745</v>
       </c>
       <c r="O21" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P21" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q21" t="n">
-        <v>322.5559691322457</v>
+        <v>231.2182429089253</v>
       </c>
       <c r="R21" t="n">
-        <v>22.63732142078702</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K22" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L22" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M22" t="n">
         <v>299.4977962876914</v>
@@ -36293,13 +36293,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O22" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P22" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>132.6846713669509</v>
+        <v>139.8619362969982</v>
       </c>
       <c r="K23" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L23" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M23" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3289193191861</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O23" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P23" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q23" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R23" t="n">
-        <v>82.32727126020743</v>
+        <v>82.3272712602074</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K24" t="n">
-        <v>181.524853957753</v>
+        <v>181.5248539577529</v>
       </c>
       <c r="L24" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M24" t="n">
-        <v>580.2233030353188</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N24" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O24" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P24" t="n">
-        <v>243.6926936986961</v>
+        <v>464.9285176949535</v>
       </c>
       <c r="Q24" t="n">
-        <v>322.5559691322457</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R24" t="n">
-        <v>22.63732142078702</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K25" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L25" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M25" t="n">
         <v>299.4977962876914</v>
@@ -36530,13 +36530,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O25" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P25" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q25" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K26" t="n">
-        <v>250.1109559575407</v>
+        <v>323.0046407605706</v>
       </c>
       <c r="L26" t="n">
-        <v>420.4529489191572</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M26" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N26" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O26" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P26" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q26" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R26" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K27" t="n">
-        <v>181.524853957753</v>
+        <v>425.3979993747975</v>
       </c>
       <c r="L27" t="n">
-        <v>641.1322360870909</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M27" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N27" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O27" t="n">
-        <v>431.6564807995595</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P27" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K28" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L28" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M28" t="n">
         <v>299.4977962876914</v>
@@ -36767,13 +36767,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O28" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P28" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q28" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K29" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L29" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M29" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N29" t="n">
-        <v>430.1516543891397</v>
+        <v>437.3289193191866</v>
       </c>
       <c r="O29" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P29" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q29" t="n">
-        <v>184.0453210905491</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R29" t="n">
-        <v>82.32727126020743</v>
+        <v>82.3272712602074</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>142.8797773900611</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K30" t="n">
-        <v>445.9900909703316</v>
+        <v>402.76067795401</v>
       </c>
       <c r="L30" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M30" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N30" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O30" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P30" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q30" t="n">
-        <v>322.5559691322457</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R30" t="n">
-        <v>22.63732142078702</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K31" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L31" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M31" t="n">
         <v>299.4977962876914</v>
@@ -37004,13 +37004,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O31" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P31" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q31" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K32" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L32" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M32" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N32" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O32" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P32" t="n">
-        <v>300.319445096288</v>
+        <v>307.4967100263347</v>
       </c>
       <c r="Q32" t="n">
-        <v>184.0453210905491</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R32" t="n">
-        <v>82.32727126020743</v>
+        <v>82.3272712602074</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K33" t="n">
-        <v>445.9900909703316</v>
+        <v>425.397999374797</v>
       </c>
       <c r="L33" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M33" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N33" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O33" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P33" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q33" t="n">
-        <v>301.9638775367111</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K34" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L34" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M34" t="n">
         <v>299.4977962876914</v>
@@ -37241,13 +37241,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O34" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P34" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K35" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L35" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M35" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N35" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O35" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P35" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q35" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722467</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>92.62341400781841</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K36" t="n">
-        <v>445.9900909703316</v>
+        <v>352.5043145717678</v>
       </c>
       <c r="L36" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M36" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N36" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O36" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P36" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q36" t="n">
-        <v>322.5559691322457</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K37" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L37" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M37" t="n">
         <v>299.4977962876914</v>
@@ -37478,13 +37478,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O37" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P37" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K38" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L38" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M38" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N38" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O38" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P38" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q38" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722467</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.01815506597376</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K39" t="n">
-        <v>181.524853957753</v>
+        <v>352.5043145717678</v>
       </c>
       <c r="L39" t="n">
-        <v>622.7228616087747</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M39" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N39" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O39" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P39" t="n">
-        <v>418.9906290960148</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322456</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K40" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L40" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M40" t="n">
         <v>299.4977962876914</v>
@@ -37715,13 +37715,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O40" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P40" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K41" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L41" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M41" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N41" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891395</v>
       </c>
       <c r="O41" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P41" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605023</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722493</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>186.1091904063826</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K42" t="n">
         <v>329.8669931509799</v>
       </c>
       <c r="L42" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M42" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N42" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O42" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P42" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q42" t="n">
-        <v>322.5559691322457</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R42" t="n">
-        <v>22.63732142078702</v>
+        <v>22.63732142078699</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058011</v>
       </c>
       <c r="K43" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295873</v>
       </c>
       <c r="L43" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M43" t="n">
         <v>299.4977962876914</v>
@@ -37952,13 +37952,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O43" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P43" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403615</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K44" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L44" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M44" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N44" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891389</v>
       </c>
       <c r="O44" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P44" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.8680561605016</v>
+        <v>176.8680561605023</v>
       </c>
       <c r="R44" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722493</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>186.1091904063826</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5043145717669</v>
+        <v>352.504314571767</v>
       </c>
       <c r="L45" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M45" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N45" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O45" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P45" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q45" t="n">
-        <v>322.5559691322457</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058011</v>
       </c>
       <c r="K46" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295873</v>
       </c>
       <c r="L46" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M46" t="n">
         <v>299.4977962876914</v>
@@ -38189,13 +38189,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O46" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P46" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403615</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
